--- a/pcb/BOM_JLCSMT.xlsx
+++ b/pcb/BOM_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -71,7 +71,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10K, 0402</t>
+    <t xml:space="preserve">1u, 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8,C12,C13,C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Swap Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW55,SW108,SW107,SW106,SW105,SW104,SW103,SW102,SW101,SW79,SW82,SW68,SW85,SW59,SW86,SW76,SW97,SW99,SW58,SW83,SW100,SW72,SW56,SW93,SW66,SW81,SW92,SW64,SW95,SW94,SW60,SW69,SW63,SW78,SW80,SW96,SW67,SW90,SW70,SW65,SW77,SW89,SW61,SW74,SW57,SW84,SW73,SW87,SW62,SW88,SW75,SW71,SW98,SW91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot_Swap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n, 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6,C9,C10,C4,C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode, SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D85,D83,D61,D71,D95,D72,D55,D87,D67,D80,D70,D73,D77,D102,D104,D76,D78,D101,D56,D92,D89,D68,D79,D64,D63,D90,D84,D60,D103,D74,D58,D105,D107,D93,D65,D86,D99,D98,D62,D91,D94,D81,D75,D57,D82,D69,D59,D100,D108,D66,D96,D97,D106,D88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k, 0402</t>
   </si>
   <si>
     <t xml:space="preserve">R6,R5,R4,R3</t>
@@ -80,16 +113,43 @@
     <t xml:space="preserve">R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5V TVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4,D1,D5</t>
+    <t xml:space="preserve">14p, 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15,C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7,R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5V, TVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1,D4,D5</t>
   </si>
   <si>
     <t xml:space="preserve">D_SOD-323_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">Boot Switch, CAS-120A</t>
+    <t xml:space="preserve">10u, 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1,C11,C2,C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAS-120A</t>
   </si>
   <si>
     <t xml:space="preserve">SW1</t>
@@ -98,66 +158,6 @@
     <t xml:space="preserve">Nidec_Copal_CAS-120A</t>
   </si>
   <si>
-    <t xml:space="preserve">K2-1102DP-C4SW-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1,R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY-TH_4P-L6.0-W6.0-P4.50-LS6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n, 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6,C9,C10,C4,C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode, SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D85,D83,D61,D71,D95,D72,D55,D87,D67,D80,D70,D73,D77,D102,D104,D76,D78,D101,D56,D92,D89,D68,D79,D64,D63,D90,D84,D60,D103,D74,D58,D105,D107,D93,D65,D86,D99,D98,D62,D91,D94,D81,D75,D57,D82,D69,D59,D100,D108,D66,D96,D97,D106,D88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u, 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13, C12,C8,C5, C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14p, 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15,C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE-C-31-M-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22, 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7,R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u, 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1,C2</t>
-  </si>
-  <si>
     <t xml:space="preserve">7M40000049</t>
   </si>
   <si>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">XTAL_7M40000049</t>
   </si>
   <si>
-    <t xml:space="preserve">Flash</t>
+    <t xml:space="preserve">GD25Q32ESIGR</t>
   </si>
   <si>
     <t xml:space="preserve">U3</t>
@@ -185,6 +185,9 @@
     <t xml:space="preserve">L_0402_1005Metric_Pad0.77x0.64mm_HandSolder</t>
   </si>
   <si>
+    <t xml:space="preserve">XC6220B331MR</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -200,7 +203,7 @@
     <t xml:space="preserve">QFN40P500X500X90-41N</t>
   </si>
   <si>
-    <t xml:space="preserve">C11,C7</t>
+    <t xml:space="preserve">R2,R1</t>
   </si>
   <si>
     <t xml:space="preserve">24n, 0402</t>
@@ -216,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,6 +275,13 @@
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,36 +333,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,34 +625,34 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="51.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -643,10 +661,10 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -655,118 +673,118 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -775,7 +793,7 @@
       <c r="C13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -800,41 +818,44 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>41</v>

--- a/pcb/BOM_JLCSMT.xlsx
+++ b/pcb/BOM_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
   </si>
   <si>
+    <t xml:space="preserve">C52923</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Swap Switch</t>
   </si>
   <si>
@@ -89,12 +92,18 @@
     <t xml:space="preserve">Hot_Swap</t>
   </si>
   <si>
+    <t xml:space="preserve">C41430893</t>
+  </si>
+  <si>
     <t xml:space="preserve">100n, 0402</t>
   </si>
   <si>
     <t xml:space="preserve">C6,C9,C10,C4,C3</t>
   </si>
   <si>
+    <t xml:space="preserve">C1525</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diode, SOD-123</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t xml:space="preserve">D_SOD-123</t>
   </si>
   <si>
+    <t xml:space="preserve">C81598</t>
+  </si>
+  <si>
     <t xml:space="preserve">10k, 0402</t>
   </si>
   <si>
@@ -113,12 +125,18 @@
     <t xml:space="preserve">R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
   </si>
   <si>
+    <t xml:space="preserve">C25744</t>
+  </si>
+  <si>
     <t xml:space="preserve">14p, 0402</t>
   </si>
   <si>
     <t xml:space="preserve">C15,C14</t>
   </si>
   <si>
+    <t xml:space="preserve">C3037644</t>
+  </si>
+  <si>
     <t xml:space="preserve">TYPE-C-31-M-12</t>
   </si>
   <si>
@@ -128,12 +146,18 @@
     <t xml:space="preserve">USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
   </si>
   <si>
+    <t xml:space="preserve">C165948</t>
+  </si>
+  <si>
     <t xml:space="preserve">22, 0402</t>
   </si>
   <si>
     <t xml:space="preserve">R7,R8</t>
   </si>
   <si>
+    <t xml:space="preserve">C25092</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.5V, TVS</t>
   </si>
   <si>
@@ -149,6 +173,9 @@
     <t xml:space="preserve">C1,C11,C2,C7</t>
   </si>
   <si>
+    <t xml:space="preserve">C15525</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAS-120A</t>
   </si>
   <si>
@@ -158,6 +185,9 @@
     <t xml:space="preserve">Nidec_Copal_CAS-120A</t>
   </si>
   <si>
+    <t xml:space="preserve">C22401620</t>
+  </si>
+  <si>
     <t xml:space="preserve">7M40000049</t>
   </si>
   <si>
@@ -167,6 +197,9 @@
     <t xml:space="preserve">XTAL_7M40000049</t>
   </si>
   <si>
+    <t xml:space="preserve">C337591</t>
+  </si>
+  <si>
     <t xml:space="preserve">GD25Q32ESIGR</t>
   </si>
   <si>
@@ -176,6 +209,9 @@
     <t xml:space="preserve">SOIC127P790X216-8N</t>
   </si>
   <si>
+    <t xml:space="preserve">C2832998</t>
+  </si>
+  <si>
     <t xml:space="preserve">2n, 0402</t>
   </si>
   <si>
@@ -185,6 +221,9 @@
     <t xml:space="preserve">L_0402_1005Metric_Pad0.77x0.64mm_HandSolder</t>
   </si>
   <si>
+    <t xml:space="preserve">C3032791</t>
+  </si>
+  <si>
     <t xml:space="preserve">XC6220B331MR</t>
   </si>
   <si>
@@ -194,6 +233,9 @@
     <t xml:space="preserve">SOT-23-5</t>
   </si>
   <si>
+    <t xml:space="preserve">C22466451</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESP32-C6</t>
   </si>
   <si>
@@ -203,13 +245,25 @@
     <t xml:space="preserve">QFN40P500X500X90-41N</t>
   </si>
   <si>
+    <t xml:space="preserve">C5364646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1k, 0402</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2,R1</t>
   </si>
   <si>
+    <t xml:space="preserve">C25905</t>
+  </si>
+  <si>
     <t xml:space="preserve">24n, 0402</t>
   </si>
   <si>
     <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C74301</t>
   </si>
 </sst>
 </file>
@@ -219,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,12 +329,6 @@
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -366,11 +414,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,8 +673,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,210 +703,250 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" s="7" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
